--- a/fp/FpAgent/srv/import/Example_import_AgOrders.xlsx
+++ b/fp/FpAgent/srv/import/Example_import_AgOrders.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="18330" windowHeight="7005"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
   <si>
     <t>0.00</t>
   </si>
@@ -128,13 +128,19 @@
   </si>
   <si>
     <t>12:00:00</t>
+  </si>
+  <si>
+    <t>23.09.2016 00:00</t>
+  </si>
+  <si>
+    <t>23.09.2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,7 +201,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -203,6 +209,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -225,14 +233,14 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -302,9 +310,7 @@
     <tableColumn id="16" name="Количество" dataDxfId="5"/>
     <tableColumn id="17" name="Вес" dataDxfId="4"/>
     <tableColumn id="18" name="Объемный вес" dataDxfId="3"/>
-    <tableColumn id="19" name="Дата приезда курьера" dataDxfId="2">
-      <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="19" name="Дата приезда курьера" dataDxfId="2"/>
     <tableColumn id="20" name="Время от" dataDxfId="1"/>
     <tableColumn id="21" name="Время до" dataDxfId="0"/>
   </tableColumns>
@@ -387,6 +393,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -421,6 +428,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -596,14 +604,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="42.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -632,7 +640,7 @@
     <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -694,7 +702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -737,7 +745,7 @@
       <c r="N2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="8">
         <v>1</v>
       </c>
       <c r="P2" s="5" t="s">
@@ -746,9 +754,8 @@
       <c r="Q2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="3">
-        <f ca="1">TODAY()</f>
-        <v>42258</v>
+      <c r="R2" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>36</v>
@@ -757,7 +764,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -800,7 +807,7 @@
       <c r="N3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="8">
         <v>1</v>
       </c>
       <c r="P3" s="5" t="s">
@@ -809,9 +816,8 @@
       <c r="Q3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="3">
-        <f ca="1">TODAY()</f>
-        <v>42258</v>
+      <c r="R3" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>36</v>
@@ -820,7 +826,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -863,7 +869,7 @@
       <c r="N4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="8">
         <v>1</v>
       </c>
       <c r="P4" s="5" t="s">
@@ -872,9 +878,8 @@
       <c r="Q4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="R4" s="3">
-        <f ca="1">TODAY()</f>
-        <v>42258</v>
+      <c r="R4" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>36</v>

--- a/fp/FpAgent/srv/import/Example_import_AgOrders.xlsx
+++ b/fp/FpAgent/srv/import/Example_import_AgOrders.xlsx
@@ -124,16 +124,16 @@
     <t>Дата приезда курьера</t>
   </si>
   <si>
-    <t>11:00:00</t>
-  </si>
-  <si>
-    <t>12:00:00</t>
-  </si>
-  <si>
-    <t>23.09.2016 00:00</t>
-  </si>
-  <si>
-    <t>23.09.2016</t>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>27.09.2016 00:00</t>
+  </si>
+  <si>
+    <t>28.09.2016</t>
   </si>
 </sst>
 </file>
@@ -201,16 +201,15 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -224,7 +223,7 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -310,9 +309,9 @@
     <tableColumn id="16" name="Количество" dataDxfId="5"/>
     <tableColumn id="17" name="Вес" dataDxfId="4"/>
     <tableColumn id="18" name="Объемный вес" dataDxfId="3"/>
-    <tableColumn id="19" name="Дата приезда курьера" dataDxfId="2"/>
-    <tableColumn id="20" name="Время от" dataDxfId="1"/>
-    <tableColumn id="21" name="Время до" dataDxfId="0"/>
+    <tableColumn id="19" name="Дата приезда курьера" dataDxfId="0"/>
+    <tableColumn id="20" name="Время от" dataDxfId="2"/>
+    <tableColumn id="21" name="Время до" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -608,7 +607,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,9 +626,9 @@
     <col min="12" max="12" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" style="4" customWidth="1"/>
     <col min="18" max="18" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.42578125" style="2" customWidth="1"/>
     <col min="20" max="20" width="11.7109375" style="2" customWidth="1"/>
@@ -683,13 +682,13 @@
       <c r="N1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -739,22 +738,22 @@
       <c r="L2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="6">
         <v>1</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="S2" s="2" t="s">
@@ -777,7 +776,7 @@
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -801,19 +800,19 @@
       <c r="L3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="6">
         <v>1</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="R3" s="7" t="s">
@@ -839,7 +838,7 @@
       <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -863,19 +862,19 @@
       <c r="L4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="6">
         <v>1</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="R4" s="7" t="s">
